--- a/sources/case/SetSchedule.xlsx
+++ b/sources/case/SetSchedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="465" windowWidth="25365" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>CaseID</t>
   </si>
@@ -79,12 +79,6 @@
     <t>09:30</t>
   </si>
   <si>
-    <t>is_elastic_time</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>is_all_scope</t>
   </si>
   <si>
@@ -124,40 +118,93 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>SetSchedule_01</t>
   </si>
   <si>
+    <t>!!String[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>!!Int[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>SetSchedule_02</t>
+  </si>
+  <si>
+    <t>SetSchedule_03</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>org_ids</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>emp_ids</t>
+  </si>
+  <si>
+    <t>!!Int30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[${organization_1.uuid}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$csv{data.Auth.user_15.employee_id}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>!!String[1,2,3,4,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int[1,2,3,4,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
     </font>
     <font>
       <sz val="9"/>
@@ -187,10 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,19 +524,19 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -506,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -527,227 +577,394 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
-        <v>29</v>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" ht="14.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="13" max="13" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>9</v>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/SetSchedule.xlsx
+++ b/sources/case/SetSchedule.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>CaseID</t>
   </si>
@@ -160,35 +160,27 @@
     <t>emp_ids</t>
   </si>
   <si>
-    <t>!!Int30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[${organization_1.uuid}]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[$csv{data.Auth.user_15.employee_id}]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$csv{data.Tenant.microfastup.tenant_id}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -197,21 +189,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,13 +236,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,61 +526,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -586,113 +591,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -707,33 +714,33 @@
       <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -748,30 +755,30 @@
       <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -780,118 +787,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -913,26 +923,26 @@
         <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -954,17 +964,18 @@
         <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>